--- a/data.xlsx
+++ b/data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomar\OneDrive\Documents\GitHub\java-minor-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D370D3-9218-4AD0-9FA3-FD4E8DAAC24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DCC9A0D8-E55B-4AB1-960C-64598DE7D3FD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="23520" windowWidth="38640" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Roll</t>
   </si>
@@ -56,13 +56,32 @@
     <t>Akarsh</t>
   </si>
   <si>
-    <t>Bishes</t>
+    <t>Bishesh</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>viaawt</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>viaawtnewguysavi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,25 +128,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -144,10 +163,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -304,7 +323,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -313,13 +332,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -329,7 +348,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -338,7 +357,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -347,7 +366,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -357,12 +376,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -393,7 +412,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -411,7 +430,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -423,11 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFA5061-E0AC-44BA-8704-EF348C1CA6D5}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFA5061-E0AC-44BA-8704-EF348C1CA6D5}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +476,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D5" si="0">IF(C2&gt;50,"PASS","FAIL")</f>
+        <f ref="D2:D5" si="0" t="shared">IF(C2&gt;50,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
@@ -472,7 +491,7 @@
         <v>98</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>PASS</v>
       </c>
     </row>
@@ -487,7 +506,7 @@
         <v>95</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>PASS</v>
       </c>
     </row>
@@ -502,7 +521,7 @@
         <v>92</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>PASS</v>
       </c>
     </row>
@@ -529,7 +548,49 @@
       <c r="A8" s="3"/>
       <c r="C8" s="1"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>